--- a/biology/Botanique/Verticordia/Verticordia.xlsx
+++ b/biology/Botanique/Verticordia/Verticordia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verticordia est un genre de plantes aromatiques de la famille des Myrtaceae.
 Ce sont des arbustes ligneux à belles petites fleurs. On les trouve principalement dans le sud-ouest de l'Australie avec plusieurs espèces dans les régions septentrionales. Une révision du genre en 1991 a produit un classement de Verticordia en 3 sous-genres, 24 sections et 101 espèces. Les différentes espèces de Verticordia ont des formes très diverses, occupent une grande variété d'habitats et peuvent être abondantes ou rares. Leur abondante et remarquable floraison font qu'elles ont été exploitées pour la fleuristerie et qu'elles sont admirées comme fleurs sauvages
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Genre Verticordia
 Sous-genre Chrysoma
